--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PKL\project pkl\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEDIA 1\Documents\mau di hosting (2)\mau di hosting\project pkl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73563F3-8224-47DA-932B-B48F52653B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B708D9-D27A-461F-842C-056AA3725C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7E4D67BA-BA23-40E3-B868-F58F1744C966}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{7E4D67BA-BA23-40E3-B868-F58F1744C966}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Habi</t>
+  </si>
+  <si>
+    <t>IPS</t>
   </si>
 </sst>
 </file>
@@ -430,12 +436,12 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,7 +483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,7 +497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -505,7 +511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -519,7 +525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -533,351 +539,361 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEDIA 1\Documents\mau di hosting (2)\mau di hosting\project pkl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B708D9-D27A-461F-842C-056AA3725C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F6375-175A-4B20-BFE2-C84638EB73E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{7E4D67BA-BA23-40E3-B868-F58F1744C966}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -63,15 +63,9 @@
     <t>RPL</t>
   </si>
   <si>
-    <t>Materi</t>
-  </si>
-  <si>
     <t>Tema Webinar</t>
   </si>
   <si>
-    <t>Web</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -79,6 +73,9 @@
   </si>
   <si>
     <t>IPS</t>
+  </si>
+  <si>
+    <t>NIP_NUPTK</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A8:D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,10 +446,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -462,11 +459,11 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
+      <c r="C2" s="1">
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,11 +473,11 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="C3" s="1">
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,11 +487,11 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="1">
+        <v>345</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -504,11 +501,11 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="1">
+        <v>456</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -518,11 +515,11 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+      <c r="C6" s="1">
+        <v>567</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -532,25 +529,25 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
+      <c r="C7" s="1">
+        <v>678</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>789</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEDIA 1\Documents\mau di hosting (2)\mau di hosting\project pkl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F6375-175A-4B20-BFE2-C84638EB73E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759D88D-1E75-4699-BF02-2BA59FB786AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{7E4D67BA-BA23-40E3-B868-F58F1744C966}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,39 @@
   </si>
   <si>
     <t>NIP_NUPTK</t>
+  </si>
+  <si>
+    <t>Adit</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Iqbal</t>
+  </si>
+  <si>
+    <t>Aldi</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>Bagas</t>
+  </si>
+  <si>
+    <t>DKV</t>
+  </si>
+  <si>
+    <t>Basium</t>
+  </si>
+  <si>
+    <t>YTBR</t>
+  </si>
+  <si>
+    <t>Tegar</t>
+  </si>
+  <si>
+    <t>BTK</t>
   </si>
 </sst>
 </file>
@@ -433,7 +466,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,98 +584,161 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>901</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>902</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>903</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>904</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>905</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>906</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEDIA 1\Documents\mau di hosting (2)\mau di hosting\project pkl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759D88D-1E75-4699-BF02-2BA59FB786AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F53E18-6879-43E7-A626-CEEC9C83FD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{7E4D67BA-BA23-40E3-B868-F58F1744C966}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>BTK</t>
+  </si>
+  <si>
+    <t>Hj Nia Herdiani, SE., M.pd</t>
+  </si>
+  <si>
+    <t>MDK</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,9 +674,18 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>907</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
